--- a/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
+++ b/Mars Share Skill & Manage Listings Test Conditions and Test cases .xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="639" documentId="13_ncr:1_{F1CA998A-9945-4E3F-9E41-EF4DE4CC5584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{786B0326-6D9A-4FA7-8505-6C652F6A945A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestConditions-ShareSkills" sheetId="1" r:id="rId1"/>
@@ -2720,6 +2720,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2741,7 +2742,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3624,7 +3624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z511"/>
   <sheetViews>
-    <sheetView topLeftCell="C48" zoomScale="111" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="C302" sqref="C302"/>
     </sheetView>
   </sheetViews>
@@ -3685,10 +3685,10 @@
       <c r="Z1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -3702,8 +3702,8 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="28" t="s">
         <v>98</v>
       </c>
@@ -3715,8 +3715,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="27" t="s">
         <v>272</v>
       </c>
@@ -3728,8 +3728,8 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="28" t="s">
         <v>146</v>
       </c>
@@ -3745,10 +3745,10 @@
       <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -3762,8 +3762,8 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="28" t="s">
         <v>98</v>
       </c>
@@ -3775,8 +3775,8 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="27" t="s">
         <v>273</v>
       </c>
@@ -3788,8 +3788,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="28" t="s">
         <v>146</v>
       </c>
@@ -3801,8 +3801,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="27" t="s">
         <v>102</v>
       </c>
@@ -3814,8 +3814,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="27" t="s">
         <v>103</v>
       </c>
@@ -3834,10 +3834,10 @@
       <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -3849,8 +3849,8 @@
       <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="28" t="s">
         <v>98</v>
       </c>
@@ -3862,8 +3862,8 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="27" t="s">
         <v>273</v>
       </c>
@@ -3875,8 +3875,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="28" t="s">
         <v>146</v>
       </c>
@@ -3888,8 +3888,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="27" t="s">
         <v>102</v>
       </c>
@@ -3901,8 +3901,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="27" t="s">
         <v>124</v>
       </c>
@@ -3919,10 +3919,10 @@
       <c r="E20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="33" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -3936,8 +3936,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="28" t="s">
         <v>98</v>
       </c>
@@ -3949,8 +3949,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="29" t="s">
         <v>275</v>
       </c>
@@ -3962,8 +3962,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="28" t="s">
         <v>146</v>
       </c>
@@ -3975,8 +3975,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="27" t="s">
         <v>102</v>
       </c>
@@ -3988,8 +3988,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="27" t="s">
         <v>127</v>
       </c>
@@ -4006,10 +4006,10 @@
       <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="39" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -4023,8 +4023,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="28" t="s">
         <v>98</v>
       </c>
@@ -4036,8 +4036,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="27" t="s">
         <v>272</v>
       </c>
@@ -4049,8 +4049,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="28" t="s">
         <v>146</v>
       </c>
@@ -4062,8 +4062,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="27" t="s">
         <v>109</v>
       </c>
@@ -4075,8 +4075,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="27" t="s">
         <v>111</v>
       </c>
@@ -4094,10 +4094,10 @@
       <c r="E34" s="31"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -4111,8 +4111,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="28" t="s">
         <v>98</v>
       </c>
@@ -4124,8 +4124,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="33"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="27" t="s">
         <v>272</v>
       </c>
@@ -4137,8 +4137,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="28" t="s">
         <v>146</v>
       </c>
@@ -4150,8 +4150,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="33"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="27" t="s">
         <v>109</v>
       </c>
@@ -4163,8 +4163,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="33"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="27" t="s">
         <v>131</v>
       </c>
@@ -4182,10 +4182,10 @@
       <c r="E41" s="31"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="33" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="27" t="s">
@@ -4199,8 +4199,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="28" t="s">
         <v>98</v>
       </c>
@@ -4212,8 +4212,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="27" t="s">
         <v>272</v>
       </c>
@@ -4225,8 +4225,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="28" t="s">
         <v>146</v>
       </c>
@@ -4238,8 +4238,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="33"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="27" t="s">
         <v>109</v>
       </c>
@@ -4251,8 +4251,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="34"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="27" t="s">
         <v>129</v>
       </c>
@@ -4267,10 +4267,10 @@
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -4284,8 +4284,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="37"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="28" t="s">
         <v>98</v>
       </c>
@@ -4297,8 +4297,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
-      <c r="B51" s="37"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="27" t="s">
         <v>272</v>
       </c>
@@ -4310,8 +4310,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="37"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="28" t="s">
         <v>146</v>
       </c>
@@ -4350,10 +4350,10 @@
       <c r="E55" s="31"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="33" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="27" t="s">
@@ -4367,8 +4367,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="33"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="28" t="s">
         <v>98</v>
       </c>
@@ -4380,8 +4380,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="27" t="s">
         <v>272</v>
       </c>
@@ -4393,8 +4393,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="33"/>
-      <c r="B59" s="32"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="28" t="s">
         <v>146</v>
       </c>
@@ -4406,8 +4406,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="33"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="28" t="s">
         <v>114</v>
       </c>
@@ -4419,8 +4419,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="33"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="28" t="s">
         <v>133</v>
       </c>
@@ -4437,10 +4437,10 @@
       <c r="E62" s="31"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
+      <c r="A63" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="33" t="s">
         <v>105</v>
       </c>
       <c r="C63" s="27" t="s">
@@ -4454,8 +4454,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="28" t="s">
         <v>98</v>
       </c>
@@ -4467,8 +4467,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="27" t="s">
         <v>272</v>
       </c>
@@ -4480,8 +4480,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="33"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="28" t="s">
         <v>146</v>
       </c>
@@ -4493,8 +4493,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="33"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="28" t="s">
         <v>114</v>
       </c>
@@ -4506,8 +4506,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="33"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="28" t="s">
         <v>115</v>
       </c>
@@ -4519,8 +4519,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="33"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="27" t="s">
         <v>118</v>
       </c>
@@ -4532,8 +4532,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="33"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="27" t="s">
         <v>119</v>
       </c>
@@ -4551,10 +4551,10 @@
       <c r="E71" s="31"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C72" s="27" t="s">
@@ -4568,8 +4568,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="33"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="28" t="s">
         <v>98</v>
       </c>
@@ -4581,8 +4581,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="33"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="27" t="s">
         <v>272</v>
       </c>
@@ -4594,8 +4594,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="33"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="33"/>
       <c r="C75" s="28" t="s">
         <v>146</v>
       </c>
@@ -4607,8 +4607,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="33"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="28" t="s">
         <v>114</v>
       </c>
@@ -4620,8 +4620,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="33"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="28" t="s">
         <v>115</v>
       </c>
@@ -4633,8 +4633,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="33"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="27" t="s">
         <v>118</v>
       </c>
@@ -4646,8 +4646,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="27" t="s">
         <v>136</v>
       </c>
@@ -4662,10 +4662,10 @@
       <c r="E80" s="31"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="33" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="27" t="s">
@@ -4679,8 +4679,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="33"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="28" t="s">
         <v>98</v>
       </c>
@@ -4692,8 +4692,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="33"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="27" t="s">
         <v>272</v>
       </c>
@@ -4705,8 +4705,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="33"/>
-      <c r="B84" s="32"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="28" t="s">
         <v>146</v>
       </c>
@@ -4718,8 +4718,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="33"/>
-      <c r="B85" s="32"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="27" t="s">
         <v>138</v>
       </c>
@@ -4731,8 +4731,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="33"/>
-      <c r="B86" s="32"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="27" t="s">
         <v>140</v>
       </c>
@@ -4750,10 +4750,10 @@
       <c r="E87" s="31"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C88" s="27" t="s">
@@ -4767,8 +4767,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="33"/>
-      <c r="B89" s="32"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="28" t="s">
         <v>98</v>
       </c>
@@ -4780,8 +4780,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="33"/>
-      <c r="B90" s="32"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="27" t="s">
         <v>273</v>
       </c>
@@ -4793,8 +4793,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="33"/>
-      <c r="B91" s="32"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="28" t="s">
         <v>146</v>
       </c>
@@ -4806,8 +4806,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="33"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="27" t="s">
         <v>138</v>
       </c>
@@ -4819,8 +4819,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="33"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="27" t="s">
         <v>140</v>
       </c>
@@ -4832,8 +4832,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="33"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="27" t="s">
         <v>200</v>
       </c>
@@ -4851,10 +4851,10 @@
       <c r="E95" s="31"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="32" t="s">
+      <c r="B96" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C96" s="27" t="s">
@@ -4868,8 +4868,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="33"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="28" t="s">
         <v>98</v>
       </c>
@@ -4881,8 +4881,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="33"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="27" t="s">
         <v>272</v>
       </c>
@@ -4894,8 +4894,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="33"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="28" t="s">
         <v>146</v>
       </c>
@@ -4907,8 +4907,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="33"/>
-      <c r="B100" s="32"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="27" t="s">
         <v>138</v>
       </c>
@@ -4920,8 +4920,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="33"/>
-      <c r="B101" s="32"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="27" t="s">
         <v>145</v>
       </c>
@@ -4939,10 +4939,10 @@
       <c r="E102" s="31"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C103" s="27" t="s">
@@ -4956,8 +4956,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="33"/>
-      <c r="B104" s="32"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="28" t="s">
         <v>98</v>
       </c>
@@ -4969,8 +4969,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="33"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="27" t="s">
         <v>272</v>
       </c>
@@ -4982,8 +4982,8 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="33"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="28" t="s">
         <v>146</v>
       </c>
@@ -4995,8 +4995,8 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="33"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="27" t="s">
         <v>153</v>
       </c>
@@ -5013,10 +5013,10 @@
       <c r="E108" s="31"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B109" s="33" t="s">
         <v>148</v>
       </c>
       <c r="C109" s="27" t="s">
@@ -5030,8 +5030,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="33"/>
-      <c r="B110" s="32"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="33"/>
       <c r="C110" s="28" t="s">
         <v>98</v>
       </c>
@@ -5043,8 +5043,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="33"/>
-      <c r="B111" s="32"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="33"/>
       <c r="C111" s="27" t="s">
         <v>272</v>
       </c>
@@ -5056,8 +5056,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="33"/>
-      <c r="B112" s="32"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="33"/>
       <c r="C112" s="28" t="s">
         <v>146</v>
       </c>
@@ -5069,8 +5069,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A113" s="33"/>
-      <c r="B113" s="32"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="33"/>
       <c r="C113" s="27" t="s">
         <v>154</v>
       </c>
@@ -5088,10 +5088,10 @@
       <c r="E114" s="31"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B115" s="33" t="s">
         <v>179</v>
       </c>
       <c r="C115" s="27" t="s">
@@ -5105,8 +5105,8 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="33"/>
-      <c r="B116" s="32"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="33"/>
       <c r="C116" s="28" t="s">
         <v>98</v>
       </c>
@@ -5118,8 +5118,8 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="33"/>
-      <c r="B117" s="32"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="33"/>
       <c r="C117" s="27" t="s">
         <v>273</v>
       </c>
@@ -5131,8 +5131,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="33"/>
-      <c r="B118" s="32"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="28" t="s">
         <v>146</v>
       </c>
@@ -5144,8 +5144,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A119" s="33"/>
-      <c r="B119" s="32"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="27" t="s">
         <v>155</v>
       </c>
@@ -5163,10 +5163,10 @@
       <c r="E120" s="31"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="33" t="s">
+      <c r="A121" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B121" s="32" t="s">
+      <c r="B121" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C121" s="27" t="s">
@@ -5180,8 +5180,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="33"/>
-      <c r="B122" s="32"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="33"/>
       <c r="C122" s="28" t="s">
         <v>98</v>
       </c>
@@ -5193,8 +5193,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A123" s="33"/>
-      <c r="B123" s="32"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="33"/>
       <c r="C123" s="27" t="s">
         <v>273</v>
       </c>
@@ -5206,8 +5206,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="33"/>
-      <c r="B124" s="32"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="33"/>
       <c r="C124" s="28" t="s">
         <v>146</v>
       </c>
@@ -5219,8 +5219,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="33"/>
-      <c r="B125" s="32"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="33"/>
       <c r="C125" s="27" t="s">
         <v>156</v>
       </c>
@@ -5238,10 +5238,10 @@
       <c r="E126" s="31"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="33" t="s">
+      <c r="A127" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B127" s="32" t="s">
+      <c r="B127" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C127" s="27" t="s">
@@ -5255,8 +5255,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="33"/>
-      <c r="B128" s="32"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="33"/>
       <c r="C128" s="28" t="s">
         <v>98</v>
       </c>
@@ -5268,8 +5268,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="33"/>
-      <c r="B129" s="32"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="33"/>
       <c r="C129" s="27" t="s">
         <v>273</v>
       </c>
@@ -5281,8 +5281,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="33"/>
-      <c r="B130" s="32"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="33"/>
       <c r="C130" s="28" t="s">
         <v>146</v>
       </c>
@@ -5294,8 +5294,8 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="33"/>
-      <c r="B131" s="32"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="33"/>
       <c r="C131" s="28" t="s">
         <v>157</v>
       </c>
@@ -5313,10 +5313,10 @@
       <c r="E132" s="31"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="33" t="s">
+      <c r="A133" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B133" s="32" t="s">
+      <c r="B133" s="33" t="s">
         <v>160</v>
       </c>
       <c r="C133" s="27" t="s">
@@ -5330,8 +5330,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="33"/>
-      <c r="B134" s="32"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="33"/>
       <c r="C134" s="28" t="s">
         <v>98</v>
       </c>
@@ -5343,8 +5343,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A135" s="33"/>
-      <c r="B135" s="32"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="33"/>
       <c r="C135" s="27" t="s">
         <v>272</v>
       </c>
@@ -5356,8 +5356,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="33"/>
-      <c r="B136" s="32"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="33"/>
       <c r="C136" s="28" t="s">
         <v>146</v>
       </c>
@@ -5369,8 +5369,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="33"/>
-      <c r="B137" s="32"/>
+      <c r="A137" s="34"/>
+      <c r="B137" s="33"/>
       <c r="C137" s="28" t="s">
         <v>161</v>
       </c>
@@ -5388,10 +5388,10 @@
       <c r="E138" s="31"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="33" t="s">
+      <c r="A139" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B139" s="32" t="s">
+      <c r="B139" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C139" s="27" t="s">
@@ -5405,8 +5405,8 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="33"/>
-      <c r="B140" s="32"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="28" t="s">
         <v>98</v>
       </c>
@@ -5418,8 +5418,8 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A141" s="33"/>
-      <c r="B141" s="32"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="27" t="s">
         <v>277</v>
       </c>
@@ -5431,8 +5431,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="33"/>
-      <c r="B142" s="32"/>
+      <c r="A142" s="34"/>
+      <c r="B142" s="33"/>
       <c r="C142" s="28" t="s">
         <v>146</v>
       </c>
@@ -5444,8 +5444,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="33"/>
-      <c r="B143" s="32"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="33"/>
       <c r="C143" s="28" t="s">
         <v>163</v>
       </c>
@@ -5463,10 +5463,10 @@
       <c r="E144" s="31"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="33" t="s">
+      <c r="A145" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C145" s="27" t="s">
@@ -5480,8 +5480,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="33"/>
-      <c r="B146" s="32"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="33"/>
       <c r="C146" s="28" t="s">
         <v>98</v>
       </c>
@@ -5493,8 +5493,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="33"/>
-      <c r="B147" s="32"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="33"/>
       <c r="C147" s="27" t="s">
         <v>273</v>
       </c>
@@ -5506,8 +5506,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="33"/>
-      <c r="B148" s="32"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="33"/>
       <c r="C148" s="28" t="s">
         <v>146</v>
       </c>
@@ -5519,8 +5519,8 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="33"/>
-      <c r="B149" s="32"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="33"/>
       <c r="C149" s="28" t="s">
         <v>166</v>
       </c>
@@ -5539,10 +5539,10 @@
       <c r="E150" s="31"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B151" s="32" t="s">
+      <c r="B151" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C151" s="27" t="s">
@@ -5556,8 +5556,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="33"/>
-      <c r="B152" s="32"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="28" t="s">
         <v>98</v>
       </c>
@@ -5569,8 +5569,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A153" s="33"/>
-      <c r="B153" s="32"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="27" t="s">
         <v>272</v>
       </c>
@@ -5582,8 +5582,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="33"/>
-      <c r="B154" s="32"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="28" t="s">
         <v>146</v>
       </c>
@@ -5595,8 +5595,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="33"/>
-      <c r="B155" s="32"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="28" t="s">
         <v>168</v>
       </c>
@@ -5615,10 +5615,10 @@
       <c r="E156" s="31"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B157" s="32" t="s">
+      <c r="B157" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C157" s="27" t="s">
@@ -5632,8 +5632,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="33"/>
-      <c r="B158" s="32"/>
+      <c r="A158" s="34"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="28" t="s">
         <v>98</v>
       </c>
@@ -5645,8 +5645,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A159" s="33"/>
-      <c r="B159" s="32"/>
+      <c r="A159" s="34"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="27" t="s">
         <v>272</v>
       </c>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="33"/>
-      <c r="B160" s="32"/>
+      <c r="A160" s="34"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="28" t="s">
         <v>146</v>
       </c>
@@ -5671,8 +5671,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="33"/>
-      <c r="B161" s="32"/>
+      <c r="A161" s="34"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="28" t="s">
         <v>170</v>
       </c>
@@ -5691,10 +5691,10 @@
       <c r="E162" s="31"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B163" s="32" t="s">
+      <c r="B163" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C163" s="27" t="s">
@@ -5708,8 +5708,8 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="33"/>
-      <c r="B164" s="32"/>
+      <c r="A164" s="34"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="28" t="s">
         <v>98</v>
       </c>
@@ -5721,8 +5721,8 @@
       </c>
     </row>
     <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A165" s="33"/>
-      <c r="B165" s="32"/>
+      <c r="A165" s="34"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="27" t="s">
         <v>272</v>
       </c>
@@ -5734,8 +5734,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" s="33"/>
-      <c r="B166" s="32"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="28" t="s">
         <v>146</v>
       </c>
@@ -5747,8 +5747,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="33"/>
-      <c r="B167" s="32"/>
+      <c r="A167" s="34"/>
+      <c r="B167" s="33"/>
       <c r="C167" s="28" t="s">
         <v>170</v>
       </c>
@@ -5760,8 +5760,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" s="33"/>
-      <c r="B168" s="32"/>
+      <c r="A168" s="34"/>
+      <c r="B168" s="33"/>
       <c r="C168" s="28" t="s">
         <v>172</v>
       </c>
@@ -5780,10 +5780,10 @@
       <c r="E169" s="31"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="B170" s="32" t="s">
+      <c r="B170" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C170" s="27" t="s">
@@ -5797,8 +5797,8 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" s="33"/>
-      <c r="B171" s="32"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="33"/>
       <c r="C171" s="28" t="s">
         <v>98</v>
       </c>
@@ -5810,8 +5810,8 @@
       </c>
     </row>
     <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="33"/>
-      <c r="B172" s="32"/>
+      <c r="A172" s="34"/>
+      <c r="B172" s="33"/>
       <c r="C172" s="27" t="s">
         <v>272</v>
       </c>
@@ -5823,8 +5823,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="33"/>
-      <c r="B173" s="32"/>
+      <c r="A173" s="34"/>
+      <c r="B173" s="33"/>
       <c r="C173" s="28" t="s">
         <v>146</v>
       </c>
@@ -5836,8 +5836,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A174" s="33"/>
-      <c r="B174" s="32"/>
+      <c r="A174" s="34"/>
+      <c r="B174" s="33"/>
       <c r="C174" s="28" t="s">
         <v>170</v>
       </c>
@@ -5849,8 +5849,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A175" s="33"/>
-      <c r="B175" s="32"/>
+      <c r="A175" s="34"/>
+      <c r="B175" s="33"/>
       <c r="C175" s="28" t="s">
         <v>174</v>
       </c>
@@ -5869,10 +5869,10 @@
       <c r="E176" s="31"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="B177" s="32" t="s">
+      <c r="B177" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C177" s="27" t="s">
@@ -5886,8 +5886,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="33"/>
-      <c r="B178" s="32"/>
+      <c r="A178" s="34"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="28" t="s">
         <v>98</v>
       </c>
@@ -5899,8 +5899,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="33"/>
-      <c r="B179" s="32"/>
+      <c r="A179" s="34"/>
+      <c r="B179" s="33"/>
       <c r="C179" s="27" t="s">
         <v>273</v>
       </c>
@@ -5912,8 +5912,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A180" s="33"/>
-      <c r="B180" s="32"/>
+      <c r="A180" s="34"/>
+      <c r="B180" s="33"/>
       <c r="C180" s="28" t="s">
         <v>146</v>
       </c>
@@ -5925,8 +5925,8 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="33"/>
-      <c r="B181" s="32"/>
+      <c r="A181" s="34"/>
+      <c r="B181" s="33"/>
       <c r="C181" s="28" t="s">
         <v>170</v>
       </c>
@@ -5938,8 +5938,8 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="33"/>
-      <c r="B182" s="32"/>
+      <c r="A182" s="34"/>
+      <c r="B182" s="33"/>
       <c r="C182" s="28" t="s">
         <v>183</v>
       </c>
@@ -5958,10 +5958,10 @@
       <c r="E183" s="31"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A184" s="33" t="s">
+      <c r="A184" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B184" s="32" t="s">
+      <c r="B184" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C184" s="27" t="s">
@@ -5975,8 +5975,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="33"/>
-      <c r="B185" s="32"/>
+      <c r="A185" s="34"/>
+      <c r="B185" s="33"/>
       <c r="C185" s="28" t="s">
         <v>98</v>
       </c>
@@ -5988,8 +5988,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A186" s="33"/>
-      <c r="B186" s="32"/>
+      <c r="A186" s="34"/>
+      <c r="B186" s="33"/>
       <c r="C186" s="27" t="s">
         <v>272</v>
       </c>
@@ -6001,8 +6001,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A187" s="33"/>
-      <c r="B187" s="32"/>
+      <c r="A187" s="34"/>
+      <c r="B187" s="33"/>
       <c r="C187" s="28" t="s">
         <v>146</v>
       </c>
@@ -6014,8 +6014,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A188" s="33"/>
-      <c r="B188" s="32"/>
+      <c r="A188" s="34"/>
+      <c r="B188" s="33"/>
       <c r="C188" s="28" t="s">
         <v>170</v>
       </c>
@@ -6027,8 +6027,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A189" s="33"/>
-      <c r="B189" s="32"/>
+      <c r="A189" s="34"/>
+      <c r="B189" s="33"/>
       <c r="C189" s="28" t="s">
         <v>185</v>
       </c>
@@ -6047,10 +6047,10 @@
       <c r="E190" s="31"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="33" t="s">
+      <c r="A191" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B191" s="32" t="s">
+      <c r="B191" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C191" s="27" t="s">
@@ -6064,8 +6064,8 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A192" s="33"/>
-      <c r="B192" s="32"/>
+      <c r="A192" s="34"/>
+      <c r="B192" s="33"/>
       <c r="C192" s="28" t="s">
         <v>98</v>
       </c>
@@ -6077,8 +6077,8 @@
       </c>
     </row>
     <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="33"/>
-      <c r="B193" s="32"/>
+      <c r="A193" s="34"/>
+      <c r="B193" s="33"/>
       <c r="C193" s="27" t="s">
         <v>272</v>
       </c>
@@ -6090,8 +6090,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="33"/>
-      <c r="B194" s="32"/>
+      <c r="A194" s="34"/>
+      <c r="B194" s="33"/>
       <c r="C194" s="28" t="s">
         <v>146</v>
       </c>
@@ -6103,8 +6103,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="33"/>
-      <c r="B195" s="32"/>
+      <c r="A195" s="34"/>
+      <c r="B195" s="33"/>
       <c r="C195" s="28" t="s">
         <v>170</v>
       </c>
@@ -6116,8 +6116,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A196" s="33"/>
-      <c r="B196" s="32"/>
+      <c r="A196" s="34"/>
+      <c r="B196" s="33"/>
       <c r="C196" s="28" t="s">
         <v>187</v>
       </c>
@@ -6136,10 +6136,10 @@
       <c r="E197" s="31"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A198" s="33" t="s">
+      <c r="A198" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B198" s="32" t="s">
+      <c r="B198" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C198" s="27" t="s">
@@ -6153,8 +6153,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A199" s="33"/>
-      <c r="B199" s="32"/>
+      <c r="A199" s="34"/>
+      <c r="B199" s="33"/>
       <c r="C199" s="28" t="s">
         <v>98</v>
       </c>
@@ -6166,8 +6166,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="33"/>
-      <c r="B200" s="32"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="33"/>
       <c r="C200" s="27" t="s">
         <v>273</v>
       </c>
@@ -6179,8 +6179,8 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="33"/>
-      <c r="B201" s="32"/>
+      <c r="A201" s="34"/>
+      <c r="B201" s="33"/>
       <c r="C201" s="28" t="s">
         <v>146</v>
       </c>
@@ -6192,8 +6192,8 @@
       </c>
     </row>
     <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="33"/>
-      <c r="B202" s="32"/>
+      <c r="A202" s="34"/>
+      <c r="B202" s="33"/>
       <c r="C202" s="28" t="s">
         <v>170</v>
       </c>
@@ -6205,8 +6205,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="33"/>
-      <c r="B203" s="32"/>
+      <c r="A203" s="34"/>
+      <c r="B203" s="33"/>
       <c r="C203" s="28" t="s">
         <v>189</v>
       </c>
@@ -6225,10 +6225,10 @@
       <c r="E204" s="31"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A205" s="33" t="s">
+      <c r="A205" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B205" s="32" t="s">
+      <c r="B205" s="33" t="s">
         <v>106</v>
       </c>
       <c r="C205" s="27" t="s">
@@ -6242,8 +6242,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" s="33"/>
-      <c r="B206" s="32"/>
+      <c r="A206" s="34"/>
+      <c r="B206" s="33"/>
       <c r="C206" s="28" t="s">
         <v>98</v>
       </c>
@@ -6255,8 +6255,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="33"/>
-      <c r="B207" s="32"/>
+      <c r="A207" s="34"/>
+      <c r="B207" s="33"/>
       <c r="C207" s="27" t="s">
         <v>272</v>
       </c>
@@ -6268,8 +6268,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A208" s="33"/>
-      <c r="B208" s="32"/>
+      <c r="A208" s="34"/>
+      <c r="B208" s="33"/>
       <c r="C208" s="28" t="s">
         <v>146</v>
       </c>
@@ -6281,8 +6281,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="33"/>
-      <c r="B209" s="32"/>
+      <c r="A209" s="34"/>
+      <c r="B209" s="33"/>
       <c r="C209" s="27" t="s">
         <v>195</v>
       </c>
@@ -6301,10 +6301,10 @@
       <c r="E210" s="31"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211" s="33" t="s">
+      <c r="A211" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B211" s="32" t="s">
+      <c r="B211" s="33" t="s">
         <v>107</v>
       </c>
       <c r="C211" s="27" t="s">
@@ -6318,8 +6318,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212" s="33"/>
-      <c r="B212" s="32"/>
+      <c r="A212" s="34"/>
+      <c r="B212" s="33"/>
       <c r="C212" s="28" t="s">
         <v>98</v>
       </c>
@@ -6331,8 +6331,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="33"/>
-      <c r="B213" s="32"/>
+      <c r="A213" s="34"/>
+      <c r="B213" s="33"/>
       <c r="C213" s="27" t="s">
         <v>272</v>
       </c>
@@ -6344,8 +6344,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214" s="33"/>
-      <c r="B214" s="32"/>
+      <c r="A214" s="34"/>
+      <c r="B214" s="33"/>
       <c r="C214" s="28" t="s">
         <v>146</v>
       </c>
@@ -6357,8 +6357,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A215" s="33"/>
-      <c r="B215" s="32"/>
+      <c r="A215" s="34"/>
+      <c r="B215" s="33"/>
       <c r="C215" s="27" t="s">
         <v>195</v>
       </c>
@@ -6377,10 +6377,10 @@
       <c r="E216" s="31"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A217" s="33" t="s">
+      <c r="A217" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B217" s="32" t="s">
+      <c r="B217" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C217" s="27" t="s">
@@ -6394,8 +6394,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218" s="33"/>
-      <c r="B218" s="32"/>
+      <c r="A218" s="34"/>
+      <c r="B218" s="33"/>
       <c r="C218" s="28" t="s">
         <v>98</v>
       </c>
@@ -6407,8 +6407,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="33"/>
-      <c r="B219" s="32"/>
+      <c r="A219" s="34"/>
+      <c r="B219" s="33"/>
       <c r="C219" s="27" t="s">
         <v>272</v>
       </c>
@@ -6420,8 +6420,8 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A220" s="33"/>
-      <c r="B220" s="32"/>
+      <c r="A220" s="34"/>
+      <c r="B220" s="33"/>
       <c r="C220" s="28" t="s">
         <v>146</v>
       </c>
@@ -6433,8 +6433,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="33"/>
-      <c r="B221" s="32"/>
+      <c r="A221" s="34"/>
+      <c r="B221" s="33"/>
       <c r="C221" s="27" t="s">
         <v>195</v>
       </c>
@@ -6446,8 +6446,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A222" s="33"/>
-      <c r="B222" s="32"/>
+      <c r="A222" s="34"/>
+      <c r="B222" s="33"/>
       <c r="C222" s="27" t="s">
         <v>198</v>
       </c>
@@ -6466,10 +6466,10 @@
       <c r="E223" s="31"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="33" t="s">
+      <c r="A224" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B224" s="32" t="s">
+      <c r="B224" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C224" s="27" t="s">
@@ -6483,8 +6483,8 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="33"/>
-      <c r="B225" s="32"/>
+      <c r="A225" s="34"/>
+      <c r="B225" s="33"/>
       <c r="C225" s="28" t="s">
         <v>98</v>
       </c>
@@ -6496,8 +6496,8 @@
       </c>
     </row>
     <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="33"/>
-      <c r="B226" s="32"/>
+      <c r="A226" s="34"/>
+      <c r="B226" s="33"/>
       <c r="C226" s="27" t="s">
         <v>272</v>
       </c>
@@ -6509,8 +6509,8 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" s="33"/>
-      <c r="B227" s="32"/>
+      <c r="A227" s="34"/>
+      <c r="B227" s="33"/>
       <c r="C227" s="28" t="s">
         <v>146</v>
       </c>
@@ -6522,8 +6522,8 @@
       </c>
     </row>
     <row r="228" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="33"/>
-      <c r="B228" s="32"/>
+      <c r="A228" s="34"/>
+      <c r="B228" s="33"/>
       <c r="C228" s="27" t="s">
         <v>195</v>
       </c>
@@ -6535,8 +6535,8 @@
       </c>
     </row>
     <row r="229" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="33"/>
-      <c r="B229" s="32"/>
+      <c r="A229" s="34"/>
+      <c r="B229" s="33"/>
       <c r="C229" s="27" t="s">
         <v>198</v>
       </c>
@@ -6548,8 +6548,8 @@
       </c>
     </row>
     <row r="230" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="33"/>
-      <c r="B230" s="32"/>
+      <c r="A230" s="34"/>
+      <c r="B230" s="33"/>
       <c r="C230" s="27" t="s">
         <v>200</v>
       </c>
@@ -6568,10 +6568,10 @@
       <c r="E231" s="31"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" s="33" t="s">
+      <c r="A232" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B232" s="32" t="s">
+      <c r="B232" s="33" t="s">
         <v>65</v>
       </c>
       <c r="C232" s="27" t="s">
@@ -6585,8 +6585,8 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" s="33"/>
-      <c r="B233" s="32"/>
+      <c r="A233" s="34"/>
+      <c r="B233" s="33"/>
       <c r="C233" s="28" t="s">
         <v>98</v>
       </c>
@@ -6598,8 +6598,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A234" s="33"/>
-      <c r="B234" s="32"/>
+      <c r="A234" s="34"/>
+      <c r="B234" s="33"/>
       <c r="C234" s="27" t="s">
         <v>272</v>
       </c>
@@ -6611,8 +6611,8 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A235" s="33"/>
-      <c r="B235" s="32"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="33"/>
       <c r="C235" s="28" t="s">
         <v>146</v>
       </c>
@@ -6624,8 +6624,8 @@
       </c>
     </row>
     <row r="236" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A236" s="33"/>
-      <c r="B236" s="32"/>
+      <c r="A236" s="34"/>
+      <c r="B236" s="33"/>
       <c r="C236" s="27" t="s">
         <v>195</v>
       </c>
@@ -6637,8 +6637,8 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A237" s="33"/>
-      <c r="B237" s="32"/>
+      <c r="A237" s="34"/>
+      <c r="B237" s="33"/>
       <c r="C237" s="27" t="s">
         <v>145</v>
       </c>
@@ -6657,10 +6657,10 @@
       <c r="E238" s="31"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" s="33" t="s">
+      <c r="A239" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="B239" s="32" t="s">
+      <c r="B239" s="33" t="s">
         <v>203</v>
       </c>
       <c r="C239" s="27" t="s">
@@ -6674,8 +6674,8 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" s="33"/>
-      <c r="B240" s="32"/>
+      <c r="A240" s="34"/>
+      <c r="B240" s="33"/>
       <c r="C240" s="28" t="s">
         <v>98</v>
       </c>
@@ -6687,8 +6687,8 @@
       </c>
     </row>
     <row r="241" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A241" s="33"/>
-      <c r="B241" s="32"/>
+      <c r="A241" s="34"/>
+      <c r="B241" s="33"/>
       <c r="C241" s="27" t="s">
         <v>273</v>
       </c>
@@ -6700,8 +6700,8 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="33"/>
-      <c r="B242" s="32"/>
+      <c r="A242" s="34"/>
+      <c r="B242" s="33"/>
       <c r="C242" s="28" t="s">
         <v>146</v>
       </c>
@@ -6713,8 +6713,8 @@
       </c>
     </row>
     <row r="243" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="33"/>
-      <c r="B243" s="32"/>
+      <c r="A243" s="34"/>
+      <c r="B243" s="33"/>
       <c r="C243" s="27" t="s">
         <v>204</v>
       </c>
@@ -6733,10 +6733,10 @@
       <c r="E244" s="31"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" s="33" t="s">
+      <c r="A245" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="B245" s="32" t="s">
+      <c r="B245" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C245" s="27" t="s">
@@ -6750,8 +6750,8 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" s="33"/>
-      <c r="B246" s="32"/>
+      <c r="A246" s="34"/>
+      <c r="B246" s="33"/>
       <c r="C246" s="28" t="s">
         <v>98</v>
       </c>
@@ -6763,8 +6763,8 @@
       </c>
     </row>
     <row r="247" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="33"/>
-      <c r="B247" s="32"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="33"/>
       <c r="C247" s="27" t="s">
         <v>272</v>
       </c>
@@ -6776,8 +6776,8 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="33"/>
-      <c r="B248" s="32"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="33"/>
       <c r="C248" s="28" t="s">
         <v>146</v>
       </c>
@@ -6789,8 +6789,8 @@
       </c>
     </row>
     <row r="249" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="33"/>
-      <c r="B249" s="32"/>
+      <c r="A249" s="34"/>
+      <c r="B249" s="33"/>
       <c r="C249" s="27" t="s">
         <v>204</v>
       </c>
@@ -6809,10 +6809,10 @@
       <c r="E250" s="31"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A251" s="33" t="s">
+      <c r="A251" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="B251" s="32" t="s">
+      <c r="B251" s="33" t="s">
         <v>177</v>
       </c>
       <c r="C251" s="27" t="s">
@@ -6826,8 +6826,8 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="33"/>
-      <c r="B252" s="32"/>
+      <c r="A252" s="34"/>
+      <c r="B252" s="33"/>
       <c r="C252" s="28" t="s">
         <v>98</v>
       </c>
@@ -6839,8 +6839,8 @@
       </c>
     </row>
     <row r="253" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="33"/>
-      <c r="B253" s="32"/>
+      <c r="A253" s="34"/>
+      <c r="B253" s="33"/>
       <c r="C253" s="27" t="s">
         <v>273</v>
       </c>
@@ -6852,8 +6852,8 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" s="33"/>
-      <c r="B254" s="32"/>
+      <c r="A254" s="34"/>
+      <c r="B254" s="33"/>
       <c r="C254" s="28" t="s">
         <v>146</v>
       </c>
@@ -6865,8 +6865,8 @@
       </c>
     </row>
     <row r="255" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="33"/>
-      <c r="B255" s="32"/>
+      <c r="A255" s="34"/>
+      <c r="B255" s="33"/>
       <c r="C255" s="27" t="s">
         <v>204</v>
       </c>
@@ -6878,8 +6878,8 @@
       </c>
     </row>
     <row r="256" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" s="33"/>
-      <c r="B256" s="32"/>
+      <c r="A256" s="34"/>
+      <c r="B256" s="33"/>
       <c r="C256" s="27" t="s">
         <v>207</v>
       </c>
@@ -6897,10 +6897,10 @@
       <c r="D257" s="22"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" s="33" t="s">
+      <c r="A258" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="B258" s="32" t="s">
+      <c r="B258" s="33" t="s">
         <v>178</v>
       </c>
       <c r="C258" s="27" t="s">
@@ -6914,8 +6914,8 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A259" s="33"/>
-      <c r="B259" s="32"/>
+      <c r="A259" s="34"/>
+      <c r="B259" s="33"/>
       <c r="C259" s="28" t="s">
         <v>98</v>
       </c>
@@ -6927,8 +6927,8 @@
       </c>
     </row>
     <row r="260" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="33"/>
-      <c r="B260" s="32"/>
+      <c r="A260" s="34"/>
+      <c r="B260" s="33"/>
       <c r="C260" s="27" t="s">
         <v>99</v>
       </c>
@@ -6940,8 +6940,8 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="33"/>
-      <c r="B261" s="32"/>
+      <c r="A261" s="34"/>
+      <c r="B261" s="33"/>
       <c r="C261" s="28" t="s">
         <v>146</v>
       </c>
@@ -6953,8 +6953,8 @@
       </c>
     </row>
     <row r="262" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="33"/>
-      <c r="B262" s="32"/>
+      <c r="A262" s="34"/>
+      <c r="B262" s="33"/>
       <c r="C262" s="27" t="s">
         <v>204</v>
       </c>
@@ -6966,8 +6966,8 @@
       </c>
     </row>
     <row r="263" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="33"/>
-      <c r="B263" s="32"/>
+      <c r="A263" s="34"/>
+      <c r="B263" s="33"/>
       <c r="C263" s="27" t="s">
         <v>209</v>
       </c>
@@ -6985,10 +6985,10 @@
       <c r="E264" s="31"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A265" s="33" t="s">
+      <c r="A265" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B265" s="32" t="s">
+      <c r="B265" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C265" s="27" t="s">
@@ -7002,8 +7002,8 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A266" s="33"/>
-      <c r="B266" s="32"/>
+      <c r="A266" s="34"/>
+      <c r="B266" s="33"/>
       <c r="C266" s="28" t="s">
         <v>98</v>
       </c>
@@ -7015,8 +7015,8 @@
       </c>
     </row>
     <row r="267" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="33"/>
-      <c r="B267" s="32"/>
+      <c r="A267" s="34"/>
+      <c r="B267" s="33"/>
       <c r="C267" s="27" t="s">
         <v>272</v>
       </c>
@@ -7028,8 +7028,8 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A268" s="33"/>
-      <c r="B268" s="32"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="33"/>
       <c r="C268" s="28" t="s">
         <v>146</v>
       </c>
@@ -7041,8 +7041,8 @@
       </c>
     </row>
     <row r="269" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="33"/>
-      <c r="B269" s="32"/>
+      <c r="A269" s="34"/>
+      <c r="B269" s="33"/>
       <c r="C269" s="28" t="s">
         <v>215</v>
       </c>
@@ -7060,10 +7060,10 @@
       <c r="E270" s="31"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A271" s="33" t="s">
+      <c r="A271" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C271" s="27" t="s">
@@ -7077,8 +7077,8 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A272" s="33"/>
-      <c r="B272" s="32"/>
+      <c r="A272" s="34"/>
+      <c r="B272" s="33"/>
       <c r="C272" s="28" t="s">
         <v>98</v>
       </c>
@@ -7090,8 +7090,8 @@
       </c>
     </row>
     <row r="273" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A273" s="33"/>
-      <c r="B273" s="32"/>
+      <c r="A273" s="34"/>
+      <c r="B273" s="33"/>
       <c r="C273" s="27" t="s">
         <v>272</v>
       </c>
@@ -7103,8 +7103,8 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="33"/>
-      <c r="B274" s="32"/>
+      <c r="A274" s="34"/>
+      <c r="B274" s="33"/>
       <c r="C274" s="28" t="s">
         <v>146</v>
       </c>
@@ -7116,8 +7116,8 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="33"/>
-      <c r="B275" s="32"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="33"/>
       <c r="C275" s="28" t="s">
         <v>215</v>
       </c>
@@ -7129,8 +7129,8 @@
       </c>
     </row>
     <row r="276" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A276" s="33"/>
-      <c r="B276" s="32"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="33"/>
       <c r="C276" s="28" t="s">
         <v>217</v>
       </c>
@@ -7148,10 +7148,10 @@
       <c r="E277" s="31"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="33" t="s">
+      <c r="A278" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B278" s="32" t="s">
+      <c r="B278" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C278" s="27" t="s">
@@ -7165,8 +7165,8 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="33"/>
-      <c r="B279" s="32"/>
+      <c r="A279" s="34"/>
+      <c r="B279" s="33"/>
       <c r="C279" s="28" t="s">
         <v>98</v>
       </c>
@@ -7178,8 +7178,8 @@
       </c>
     </row>
     <row r="280" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A280" s="33"/>
-      <c r="B280" s="32"/>
+      <c r="A280" s="34"/>
+      <c r="B280" s="33"/>
       <c r="C280" s="27" t="s">
         <v>272</v>
       </c>
@@ -7191,8 +7191,8 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A281" s="33"/>
-      <c r="B281" s="32"/>
+      <c r="A281" s="34"/>
+      <c r="B281" s="33"/>
       <c r="C281" s="28" t="s">
         <v>146</v>
       </c>
@@ -7204,8 +7204,8 @@
       </c>
     </row>
     <row r="282" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A282" s="33"/>
-      <c r="B282" s="32"/>
+      <c r="A282" s="34"/>
+      <c r="B282" s="33"/>
       <c r="C282" s="28" t="s">
         <v>219</v>
       </c>
@@ -7223,10 +7223,10 @@
       <c r="E283" s="31"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="33" t="s">
+      <c r="A284" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B284" s="32" t="s">
+      <c r="B284" s="33" t="s">
         <v>221</v>
       </c>
       <c r="C284" s="27" t="s">
@@ -7240,8 +7240,8 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="33"/>
-      <c r="B285" s="32"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="33"/>
       <c r="C285" s="28" t="s">
         <v>98</v>
       </c>
@@ -7253,8 +7253,8 @@
       </c>
     </row>
     <row r="286" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A286" s="33"/>
-      <c r="B286" s="32"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="33"/>
       <c r="C286" s="27" t="s">
         <v>272</v>
       </c>
@@ -7266,8 +7266,8 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A287" s="33"/>
-      <c r="B287" s="32"/>
+      <c r="A287" s="34"/>
+      <c r="B287" s="33"/>
       <c r="C287" s="28" t="s">
         <v>146</v>
       </c>
@@ -7279,8 +7279,8 @@
       </c>
     </row>
     <row r="288" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A288" s="33"/>
-      <c r="B288" s="32"/>
+      <c r="A288" s="34"/>
+      <c r="B288" s="33"/>
       <c r="C288" s="27" t="s">
         <v>223</v>
       </c>
@@ -7298,10 +7298,10 @@
       <c r="E289" s="31"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="33" t="s">
+      <c r="A290" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B290" s="32" t="s">
+      <c r="B290" s="33" t="s">
         <v>222</v>
       </c>
       <c r="C290" s="27" t="s">
@@ -7315,8 +7315,8 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="33"/>
-      <c r="B291" s="32"/>
+      <c r="A291" s="34"/>
+      <c r="B291" s="33"/>
       <c r="C291" s="28" t="s">
         <v>98</v>
       </c>
@@ -7328,8 +7328,8 @@
       </c>
     </row>
     <row r="292" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A292" s="33"/>
-      <c r="B292" s="32"/>
+      <c r="A292" s="34"/>
+      <c r="B292" s="33"/>
       <c r="C292" s="27" t="s">
         <v>277</v>
       </c>
@@ -7341,8 +7341,8 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="33"/>
-      <c r="B293" s="32"/>
+      <c r="A293" s="34"/>
+      <c r="B293" s="33"/>
       <c r="C293" s="28" t="s">
         <v>146</v>
       </c>
@@ -7354,8 +7354,8 @@
       </c>
     </row>
     <row r="294" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A294" s="33"/>
-      <c r="B294" s="32"/>
+      <c r="A294" s="34"/>
+      <c r="B294" s="33"/>
       <c r="C294" s="27" t="s">
         <v>225</v>
       </c>
@@ -8543,12 +8543,72 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="A96:A101"/>
-    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="B290:B294"/>
+    <mergeCell ref="A290:A294"/>
+    <mergeCell ref="B284:B288"/>
+    <mergeCell ref="A284:A288"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="A265:A269"/>
+    <mergeCell ref="B271:B276"/>
+    <mergeCell ref="A271:A276"/>
+    <mergeCell ref="A278:A282"/>
+    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="A245:A249"/>
+    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B251:B256"/>
+    <mergeCell ref="A251:A256"/>
+    <mergeCell ref="A258:A263"/>
+    <mergeCell ref="B258:B263"/>
+    <mergeCell ref="B224:B230"/>
+    <mergeCell ref="A224:A230"/>
+    <mergeCell ref="A232:A237"/>
+    <mergeCell ref="B232:B237"/>
+    <mergeCell ref="B239:B243"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="B205:B209"/>
+    <mergeCell ref="A205:A209"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="B217:B222"/>
+    <mergeCell ref="A217:A222"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="A191:A196"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="A198:A203"/>
+    <mergeCell ref="B163:B168"/>
+    <mergeCell ref="A163:A168"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="B177:B182"/>
+    <mergeCell ref="A177:A182"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="B133:B137"/>
+    <mergeCell ref="A139:A143"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A103:A107"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="B63:B70"/>
+    <mergeCell ref="A63:A70"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="A72:A79"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B12"/>
@@ -8565,72 +8625,12 @@
     <mergeCell ref="A42:A47"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="A63:A70"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="A103:A107"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="A139:A143"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B145:B149"/>
-    <mergeCell ref="A145:A149"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="A163:A168"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="B177:B182"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="A191:A196"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="A205:A209"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="B217:B222"/>
-    <mergeCell ref="A217:A222"/>
-    <mergeCell ref="B224:B230"/>
-    <mergeCell ref="A224:A230"/>
-    <mergeCell ref="A232:A237"/>
-    <mergeCell ref="B232:B237"/>
-    <mergeCell ref="B239:B243"/>
-    <mergeCell ref="A239:A243"/>
-    <mergeCell ref="A245:A249"/>
-    <mergeCell ref="B245:B249"/>
-    <mergeCell ref="B251:B256"/>
-    <mergeCell ref="A251:A256"/>
-    <mergeCell ref="A258:A263"/>
-    <mergeCell ref="B258:B263"/>
-    <mergeCell ref="B290:B294"/>
-    <mergeCell ref="A290:A294"/>
-    <mergeCell ref="B284:B288"/>
-    <mergeCell ref="A284:A288"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="A265:A269"/>
-    <mergeCell ref="B271:B276"/>
-    <mergeCell ref="A271:A276"/>
-    <mergeCell ref="A278:A282"/>
-    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A96:A101"/>
+    <mergeCell ref="B96:B101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -25356,7 +25356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E9F4-C273-4770-93D7-BAD82376940C}">
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -25399,10 +25399,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>235</v>
       </c>
       <c r="C2" s="27" t="s">
@@ -25411,58 +25411,58 @@
       <c r="D2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6" s="28"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -25471,59 +25471,59 @@
       <c r="D7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="28" t="s">
         <v>251</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25531,7 +25531,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
       <c r="C12" s="28"/>
-      <c r="E12" s="39"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
@@ -25546,7 +25546,7 @@
       <c r="D13" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25554,7 +25554,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
       <c r="C14" s="28"/>
-      <c r="E14" s="39"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
@@ -25569,7 +25569,7 @@
       <c r="D15" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25577,7 +25577,7 @@
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="28"/>
-      <c r="E16" s="39"/>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
@@ -25592,13 +25592,13 @@
       <c r="D17" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" s="27"/>
-      <c r="E18" s="39"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
@@ -25613,7 +25613,7 @@
       <c r="D19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25624,7 +25624,7 @@
       <c r="D20" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25635,7 +25635,7 @@
       <c r="D21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25646,7 +25646,7 @@
       <c r="D22" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25657,7 +25657,7 @@
       <c r="D23" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25668,19 +25668,19 @@
       <c r="D24" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" s="27"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="33" t="s">
         <v>239</v>
       </c>
       <c r="C26" s="27" t="s">
@@ -25689,72 +25689,72 @@
       <c r="D26" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="28" t="s">
         <v>256</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="28" t="s">
         <v>257</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25762,7 +25762,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="8"/>
       <c r="C32" s="28"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" ht="158" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
@@ -25777,7 +25777,7 @@
       <c r="D33" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25785,7 +25785,7 @@
       <c r="A34" s="9"/>
       <c r="B34" s="8"/>
       <c r="C34" s="27"/>
-      <c r="E34" s="39"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="158.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
@@ -25800,7 +25800,7 @@
       <c r="D35" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25808,7 +25808,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="8"/>
       <c r="C36" s="27"/>
-      <c r="E36" s="39"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" ht="134" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
@@ -25823,7 +25823,7 @@
       <c r="D37" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25831,7 +25831,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="8"/>
       <c r="C38" s="27"/>
-      <c r="E38" s="39"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" ht="146" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
@@ -25846,19 +25846,19 @@
       <c r="D39" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C40" s="27"/>
-      <c r="E40" s="39"/>
+      <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="33" t="s">
         <v>240</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -25867,71 +25867,71 @@
       <c r="D41" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33"/>
-      <c r="B42" s="32"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
+      <c r="A43" s="34"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D44" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="33"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="28" t="s">
         <v>259</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C46" s="27"/>
-      <c r="E46" s="39"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="33" t="s">
         <v>241</v>
       </c>
       <c r="C47" s="27" t="s">
@@ -25940,59 +25940,59 @@
       <c r="D47" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
-      <c r="B48" s="32"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E48" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E49" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
-      <c r="B51" s="32"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="28" t="s">
         <v>259</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -26003,19 +26003,19 @@
       <c r="D52" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C53" s="27"/>
-      <c r="E53" s="39"/>
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="33" t="s">
         <v>245</v>
       </c>
       <c r="C54" s="27" t="s">
@@ -26024,71 +26024,71 @@
       <c r="D54" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="33"/>
-      <c r="B55" s="32"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D55" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="39" t="s">
+      <c r="E55" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="33"/>
-      <c r="B56" s="32"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D56" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="33"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E57" s="39" t="s">
+      <c r="E57" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="33"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D58" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C59" s="27"/>
-      <c r="E59" s="39"/>
+      <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="33" t="s">
         <v>264</v>
       </c>
       <c r="C60" s="27" t="s">
@@ -26097,84 +26097,84 @@
       <c r="D60" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="39" t="s">
+      <c r="E60" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="33"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="33"/>
-      <c r="B62" s="32"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D62" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="33"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D63" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E63" s="39" t="s">
+      <c r="E63" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="33"/>
-      <c r="B65" s="32"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D65" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C66" s="28"/>
-      <c r="E66" s="39"/>
+      <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
+      <c r="A67" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="33" t="s">
         <v>246</v>
       </c>
       <c r="C67" s="27" t="s">
@@ -26183,97 +26183,97 @@
       <c r="D67" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="33"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D68" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="33"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="33"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D70" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="33"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="33"/>
       <c r="C71" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="33"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="33"/>
       <c r="C72" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="33"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="28" t="s">
         <v>267</v>
       </c>
       <c r="D73" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C74" s="28"/>
-      <c r="E74" s="39"/>
+      <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="33" t="s">
         <v>247</v>
       </c>
       <c r="C75" s="27" t="s">
@@ -26282,85 +26282,85 @@
       <c r="D75" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="33"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="33"/>
       <c r="C76" s="28" t="s">
         <v>98</v>
       </c>
       <c r="D76" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="39" t="s">
+      <c r="E76" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="33"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="27" t="s">
         <v>272</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A78" s="33"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="28" t="s">
         <v>248</v>
       </c>
       <c r="D78" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="33"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="28" t="s">
         <v>263</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="33"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="28" t="s">
         <v>265</v>
       </c>
       <c r="D80" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="32" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="33"/>
-      <c r="B81" s="32"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="28" t="s">
         <v>269</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="32" t="s">
         <v>274</v>
       </c>
     </row>
@@ -27512,6 +27512,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A26:A31"/>
     <mergeCell ref="A67:A73"/>
     <mergeCell ref="A75:A81"/>
     <mergeCell ref="A41:A45"/>
@@ -27524,12 +27530,6 @@
     <mergeCell ref="A54:A58"/>
     <mergeCell ref="B60:B65"/>
     <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A26:A31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
